--- a/04_CPlusPlus/007 引用类型 友元函数 运算符重载.xlsx
+++ b/04_CPlusPlus/007 引用类型 友元函数 运算符重载.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99786A-AC81-4C63-9240-7951AAE6FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389F06F-046B-48E2-9A78-CD6024E95A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="256">
   <si>
     <t>引用类型</t>
   </si>
@@ -834,6 +834,14 @@
   </si>
   <si>
     <t>操作过程都是一样的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  需要重载 运算符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  两个对象作比较时，</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1754,11 +1762,14 @@
   </sheetPr>
   <dimension ref="B4:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1802,8 +1813,16 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="G9" s="13" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -6704,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF678443-FBA9-4642-9473-E3B09643121F}">
   <dimension ref="B3:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
